--- a/net-service/user-service/src/main/resources/新增用户数据模版.xlsx
+++ b/net-service/user-service/src/main/resources/新增用户数据模版.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\大三下学习\软件工程实训\后端代码\Net_Disk\net-service\user-service\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC00460-1F18-4CD5-8ADC-B1EAF217D8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,8 +14,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,60 +29,109 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>明细数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>新增用户数据表</t>
   </si>
   <si>
     <t>概览数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增用户数据表</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">	用户数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色类型</t>
+  </si>
+  <si>
+    <t>明细数据</t>
   </si>
   <si>
     <t>用户Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	用户名</t>
   </si>
   <si>
     <t xml:space="preserve">	密码</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	用户名</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>角色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色类型</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -92,16 +139,22 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +163,6 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -119,7 +171,52 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -127,7 +224,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +231,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -143,125 +238,13 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -275,192 +258,205 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,128 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -632,132 +506,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,89 +785,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -899,7 +919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,7 +954,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1108,43 +1128,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3140704A-7B60-4B9F-AEE4-9B02765B2FB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.6" defaultRowHeight="25.05" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="15.59765625" style="1"/>
+    <col min="1" max="16384" width="15.6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="45" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1152,279 +1167,279 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customHeight="1" spans="2:5">
       <c r="B4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="2:5">
       <c r="B5" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" spans="2:5">
       <c r="B6" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" spans="2:5">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customHeight="1" spans="2:5">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" spans="2:5">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" customHeight="1" spans="2:5">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" spans="2:5">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" customHeight="1" spans="2:5">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" customHeight="1" spans="2:5">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" customHeight="1" spans="2:5">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" customHeight="1" spans="2:5">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" customHeight="1" spans="2:5">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" customHeight="1" spans="2:5">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="20" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" customHeight="1" spans="2:5">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" customHeight="1" spans="2:5">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" customHeight="1" spans="2:5">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" customHeight="1" spans="2:5">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
     </row>
-    <row r="24" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" customHeight="1" spans="2:5">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" customHeight="1" spans="2:5">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" customHeight="1" spans="2:5">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
     </row>
-    <row r="27" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" customHeight="1" spans="2:5">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" customHeight="1" spans="2:5">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" customHeight="1" spans="2:5">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" customHeight="1" spans="2:5">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" customHeight="1" spans="2:5">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" customHeight="1" spans="2:5">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" customHeight="1" spans="2:5">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" customHeight="1" spans="2:5">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" customHeight="1" spans="2:5">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" customHeight="1" spans="2:5">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" customHeight="1" spans="2:5">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" customHeight="1" spans="2:5">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" customHeight="1" spans="2:5">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" customHeight="1" spans="2:5">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" customHeight="1" spans="2:5">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" customHeight="1" spans="2:5">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" customHeight="1" spans="2:5">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" customHeight="1" spans="2:5">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" customHeight="1" spans="2:5">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" customHeight="1" spans="2:5">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="2:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" customHeight="1" spans="2:5">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1432,13 +1447,13 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>